--- a/Filtered_By_Region/Region I/Region I_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region I/Region I_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS303"/>
+  <dimension ref="A1:AU303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -773,7 +783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -887,7 +902,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1003,7 +1023,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1117,7 +1142,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1231,7 +1261,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1345,7 +1380,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1459,7 +1499,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1605,7 +1650,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1722,7 +1767,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1839,7 +1884,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1992,7 +2037,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2143,7 +2188,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2294,7 +2339,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2434,7 +2479,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2566,7 +2611,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2706,7 +2751,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2844,7 +2889,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2982,7 +3032,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3120,7 +3170,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3258,7 +3313,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3396,7 +3456,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3534,7 +3594,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3672,7 +3732,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3810,7 +3870,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3948,7 +4008,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4086,7 +4146,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4224,7 +4284,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4362,7 +4422,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4500,7 +4560,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4638,7 +4698,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4776,7 +4836,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4914,7 +4974,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5052,7 +5112,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5185,7 +5245,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5323,7 +5383,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5461,7 +5521,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5599,7 +5659,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5737,7 +5797,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5875,7 +5935,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6013,7 +6073,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6151,7 +6211,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6289,7 +6349,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6427,7 +6487,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6573,7 +6633,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6719,7 +6779,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6865,7 +6925,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7008,7 +7068,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7154,7 +7214,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7300,7 +7360,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7446,7 +7506,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7592,7 +7652,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7738,7 +7798,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7884,7 +7944,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8027,7 +8087,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8152,7 +8217,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8277,7 +8347,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8402,7 +8477,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8527,7 +8607,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8649,7 +8734,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8774,7 +8864,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8899,7 +8994,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9024,7 +9124,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9149,7 +9254,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9274,7 +9384,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9399,7 +9514,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9516,7 +9636,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9633,7 +9753,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9750,7 +9870,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9867,7 +9992,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9984,7 +10114,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10101,7 +10236,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10218,7 +10358,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10335,7 +10480,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10452,7 +10597,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10569,7 +10719,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10686,7 +10841,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10803,7 +10963,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10920,7 +11085,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11037,7 +11207,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11154,7 +11329,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11271,7 +11451,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AS82" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11388,7 +11573,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AS83" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11505,7 +11695,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AS84" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11622,7 +11817,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11739,7 +11939,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AS86" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11856,7 +12061,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11973,7 +12178,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AS88" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12090,7 +12300,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12207,7 +12422,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AS90" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12324,7 +12544,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12441,7 +12666,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AS92" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12558,7 +12788,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12675,7 +12910,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12792,7 +13027,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12909,7 +13144,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13026,7 +13261,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AS97" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13143,7 +13383,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13260,7 +13500,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13377,7 +13617,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AS100" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13494,7 +13739,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AS101" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13611,7 +13861,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13728,7 +13978,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13845,7 +14095,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13962,7 +14212,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14079,7 +14329,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AS106" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14196,7 +14451,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14313,7 +14568,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14430,7 +14685,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14547,7 +14802,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AS110" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14664,7 +14924,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14781,7 +15041,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AS112" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14898,7 +15163,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15015,7 +15280,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AS114" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15132,7 +15402,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15249,7 +15519,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15366,7 +15636,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15483,7 +15753,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15623,7 +15893,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15763,7 +16033,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15903,7 +16173,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16043,7 +16313,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16195,7 +16465,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16347,7 +16617,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16499,7 +16769,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16651,7 +16921,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16791,7 +17061,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AS127" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16931,7 +17206,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17071,7 +17346,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AS129" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17238,7 +17518,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17405,7 +17685,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17519,7 +17799,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17633,7 +17913,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17747,7 +18027,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17861,7 +18141,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17980,7 +18260,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18094,7 +18374,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18208,7 +18488,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18322,7 +18602,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18436,7 +18716,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18550,7 +18830,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18664,7 +18944,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -18778,7 +19058,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18892,7 +19172,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19006,7 +19286,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -19120,7 +19400,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19234,7 +19514,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -19348,7 +19628,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -19462,7 +19742,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -19576,7 +19856,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -19690,7 +19970,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -19804,7 +20084,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -19944,7 +20224,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20084,7 +20364,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20224,7 +20504,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20361,7 +20641,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20501,7 +20781,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20641,7 +20921,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20781,7 +21061,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20921,7 +21201,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21035,7 +21315,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21149,7 +21429,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21268,7 +21548,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21382,7 +21662,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21496,7 +21776,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21610,7 +21890,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21724,7 +22004,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21838,7 +22118,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21957,7 +22237,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22076,7 +22356,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22190,7 +22470,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22304,7 +22584,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22423,7 +22703,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22537,7 +22817,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22656,7 +22936,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22775,7 +23055,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22889,7 +23169,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23008,7 +23288,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23127,7 +23407,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23246,7 +23526,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23365,7 +23645,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23484,7 +23764,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23603,7 +23883,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23722,7 +24002,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23841,7 +24121,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23960,7 +24240,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24079,7 +24359,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24198,7 +24478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24317,7 +24597,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24436,7 +24716,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24555,7 +24835,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24674,7 +24954,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24793,7 +25073,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24912,7 +25192,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AT194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25031,7 +25311,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR195" t="inlineStr">
+      <c r="AT195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25150,7 +25430,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR196" t="inlineStr">
+      <c r="AT196" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25269,7 +25549,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR197" t="inlineStr">
+      <c r="AT197" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25388,7 +25668,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR198" t="inlineStr">
+      <c r="AT198" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25546,7 +25826,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR199" t="inlineStr">
+      <c r="AT199" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25704,7 +25984,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR200" t="inlineStr">
+      <c r="AT200" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25862,7 +26142,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR201" t="inlineStr">
+      <c r="AT201" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26020,7 +26300,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR202" t="inlineStr">
+      <c r="AT202" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26178,7 +26458,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AT203" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26336,7 +26616,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR204" t="inlineStr">
+      <c r="AT204" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26494,7 +26774,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR205" t="inlineStr">
+      <c r="AT205" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26652,7 +26932,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR206" t="inlineStr">
+      <c r="AT206" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26810,7 +27090,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR207" t="inlineStr">
+      <c r="AT207" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26924,7 +27204,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27038,7 +27318,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27152,7 +27432,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27266,7 +27546,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27380,7 +27660,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27494,7 +27774,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27608,7 +27888,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27722,7 +28002,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27836,7 +28116,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27955,7 +28235,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28074,7 +28354,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28231,7 +28511,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28388,7 +28668,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28540,7 +28820,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28700,7 +28980,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28857,6 +29137,11 @@
       </c>
       <c r="AR223" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT223" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29015,7 +29300,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AT224" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29175,7 +29460,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29330,7 +29615,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29441,6 +29726,11 @@
       </c>
       <c r="AR227" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT227" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29550,6 +29840,11 @@
       </c>
       <c r="AR228" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT228" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29659,6 +29954,11 @@
       </c>
       <c r="AR229" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT229" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29787,7 +30087,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29906,7 +30206,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30025,7 +30325,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30144,7 +30444,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR233" t="inlineStr">
+      <c r="AT233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30263,7 +30563,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR234" t="inlineStr">
+      <c r="AT234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30387,7 +30687,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30511,7 +30811,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30635,7 +30935,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30767,6 +31067,11 @@
       </c>
       <c r="AR238" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT238" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -30895,7 +31200,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR239" t="inlineStr">
+      <c r="AT239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31025,7 +31330,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31157,6 +31462,11 @@
       </c>
       <c r="AR241" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT241" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31287,6 +31597,11 @@
       </c>
       <c r="AR242" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT242" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31431,7 +31746,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR243" t="inlineStr">
+      <c r="AT243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31577,7 +31892,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31722,7 +32037,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR245" t="inlineStr">
+      <c r="AT245" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31869,6 +32184,11 @@
       </c>
       <c r="AR246" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT246" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32012,7 +32332,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR247" t="inlineStr">
+      <c r="AT247" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32131,7 +32451,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR248" t="inlineStr">
+      <c r="AT248" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32276,7 +32596,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32423,6 +32743,11 @@
       </c>
       <c r="AR250" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT250" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32566,7 +32891,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR251" t="inlineStr">
+      <c r="AT251" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32711,7 +33036,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32820,7 +33145,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR253" t="inlineStr">
+      <c r="AT253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32931,6 +33256,11 @@
       </c>
       <c r="AR254" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -33038,7 +33368,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33147,7 +33477,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR256" t="inlineStr">
+      <c r="AT256" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33256,7 +33586,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR257" t="inlineStr">
+      <c r="AT257" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33365,7 +33695,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR258" t="inlineStr">
+      <c r="AT258" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33474,7 +33804,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR259" t="inlineStr">
+      <c r="AT259" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33583,7 +33913,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR260" t="inlineStr">
+      <c r="AT260" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33694,6 +34024,11 @@
       </c>
       <c r="AR261" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT261" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -33801,7 +34136,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR262" t="inlineStr">
+      <c r="AT262" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33910,7 +34245,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR263" t="inlineStr">
+      <c r="AT263" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34021,6 +34356,11 @@
       </c>
       <c r="AR264" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT264" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -34128,7 +34468,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR265" t="inlineStr">
+      <c r="AT265" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34258,7 +34598,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR266" t="inlineStr">
+      <c r="AT266" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34390,6 +34730,11 @@
       </c>
       <c r="AR267" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -34497,7 +34842,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR268" t="inlineStr">
+      <c r="AT268" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34608,6 +34953,11 @@
       </c>
       <c r="AR269" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT269" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -34715,7 +35065,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR270" t="inlineStr">
+      <c r="AT270" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34826,6 +35176,11 @@
       </c>
       <c r="AR271" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT271" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -34933,7 +35288,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR272" t="inlineStr">
+      <c r="AT272" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35042,7 +35397,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR273" t="inlineStr">
+      <c r="AT273" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35151,7 +35506,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR274" t="inlineStr">
+      <c r="AT274" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35260,7 +35615,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR275" t="inlineStr">
+      <c r="AT275" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35417,7 +35772,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR276" t="inlineStr">
+      <c r="AT276" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35574,7 +35929,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR277" t="inlineStr">
+      <c r="AT277" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35731,7 +36086,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR278" t="inlineStr">
+      <c r="AT278" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35890,6 +36245,11 @@
       </c>
       <c r="AR279" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT279" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -36045,7 +36405,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR280" t="inlineStr">
+      <c r="AT280" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36202,7 +36562,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR281" t="inlineStr">
+      <c r="AT281" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36359,7 +36719,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR282" t="inlineStr">
+      <c r="AT282" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36516,7 +36876,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR283" t="inlineStr">
+      <c r="AT283" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36640,7 +37000,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR284" t="inlineStr">
+      <c r="AT284" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36749,7 +37109,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR285" t="inlineStr">
+      <c r="AT285" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36860,6 +37220,11 @@
       </c>
       <c r="AR286" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT286" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -37011,7 +37376,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR287" t="inlineStr">
+      <c r="AT287" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37164,7 +37529,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR288" t="inlineStr">
+      <c r="AT288" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37317,7 +37682,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR289" t="inlineStr">
+      <c r="AT289" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37470,7 +37835,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR290" t="inlineStr">
+      <c r="AT290" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37623,7 +37988,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR291" t="inlineStr">
+      <c r="AT291" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37737,7 +38102,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR292" t="inlineStr">
+      <c r="AT292" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37846,7 +38211,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR293" t="inlineStr">
+      <c r="AT293" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37960,7 +38325,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR294" t="inlineStr">
+      <c r="AT294" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38107,7 +38472,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR295" t="inlineStr">
+      <c r="AT295" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38226,7 +38591,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR296" t="inlineStr">
+      <c r="AT296" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38345,7 +38710,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR297" t="inlineStr">
+      <c r="AT297" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38493,6 +38858,11 @@
       </c>
       <c r="AR298" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT298" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38642,7 +39012,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR299" t="inlineStr">
+      <c r="AT299" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -38786,6 +39156,11 @@
       </c>
       <c r="AR300" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT300" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -38923,7 +39298,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR301" t="inlineStr">
+      <c r="AT301" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -39054,7 +39429,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR302" t="inlineStr">
+      <c r="AT302" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -39212,13 +39587,18 @@
       </c>
       <c r="AR303" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT303" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS303" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU303" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
